--- a/ofc/sh.xlsx
+++ b/ofc/sh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Buy" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="50">
   <si>
     <t>S.N</t>
   </si>
@@ -485,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -694,9 +694,57 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,37 +754,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -744,30 +777,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1051,9 +1060,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,10 +1102,10 @@
       <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="77"/>
+      <c r="E1" s="91"/>
       <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
@@ -1106,17 +1115,17 @@
       <c r="H1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="72"/>
+      <c r="J1" s="88"/>
       <c r="K1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="73"/>
+      <c r="M1" s="89"/>
       <c r="N1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1292,7 +1301,7 @@
         <f>H4/C4</f>
         <v>738.38125000000014</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="85">
         <f>AVERAGE(D4:D5)</f>
         <v>739.28462500000012</v>
       </c>
@@ -1359,7 +1368,7 @@
         <f>H5/C5</f>
         <v>740.1880000000001</v>
       </c>
-      <c r="E5" s="71"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="20">
         <v>736.8</v>
       </c>
@@ -1474,7 +1483,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="74">
+      <c r="A7" s="82">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -1504,7 +1513,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="75">
+      <c r="N7" s="81">
         <v>45649</v>
       </c>
       <c r="O7" s="12"/>
@@ -1538,7 +1547,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
@@ -1566,7 +1575,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="75"/>
+      <c r="N8" s="81"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="19">
@@ -1598,7 +1607,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
@@ -1629,7 +1638,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="75"/>
+      <c r="N9" s="81"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="19">
@@ -1661,7 +1670,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
@@ -1689,7 +1698,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="75"/>
+      <c r="N10" s="81"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="19">
@@ -1721,7 +1730,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
@@ -1749,7 +1758,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="75"/>
+      <c r="N11" s="81"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="19">
@@ -1781,7 +1790,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
@@ -1808,7 +1817,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="75"/>
+      <c r="N12" s="81"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="19">
@@ -1840,7 +1849,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="74">
+      <c r="A13" s="82">
         <v>7</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -1866,14 +1875,14 @@
         <f>C13*F13</f>
         <v>34200</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="84">
         <f>SUM(I13:I14)</f>
         <v>40140</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="75">
+      <c r="N13" s="81">
         <v>45657</v>
       </c>
       <c r="O13" s="17"/>
@@ -1907,7 +1916,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
@@ -1931,11 +1940,11 @@
         <f>C14*F14</f>
         <v>5940</v>
       </c>
-      <c r="J14" s="83"/>
+      <c r="J14" s="84"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="75"/>
+      <c r="N14" s="81"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="19">
@@ -1967,7 +1976,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="80">
+      <c r="A15" s="79">
         <v>8</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -1997,7 +2006,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="75">
+      <c r="N15" s="81">
         <v>45664</v>
       </c>
       <c r="O15" s="28"/>
@@ -2031,7 +2040,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="13" t="s">
         <v>32</v>
       </c>
@@ -2059,7 +2068,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="75"/>
+      <c r="N16" s="81"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="19">
@@ -2091,7 +2100,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="13" t="s">
         <v>13</v>
       </c>
@@ -2119,7 +2128,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="75"/>
+      <c r="N17" s="81"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="19">
@@ -2151,7 +2160,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
@@ -2179,7 +2188,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="75"/>
+      <c r="N18" s="81"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="19">
@@ -2224,7 +2233,7 @@
         <f t="shared" ref="D19" si="26">H19/C19</f>
         <v>853.4527272727272</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="85">
         <f>(C19*D19+C20*D20+C21*D21)/(C19+C20+C21)</f>
         <v>828.32327083333325</v>
       </c>
@@ -2291,7 +2300,7 @@
         <f t="shared" ref="D20:D26" si="33">H20/C20</f>
         <v>833.42453947368415</v>
       </c>
-      <c r="E20" s="84"/>
+      <c r="E20" s="86"/>
       <c r="F20" s="20">
         <v>829</v>
       </c>
@@ -2342,7 +2351,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="80">
+      <c r="A21" s="79">
         <v>11</v>
       </c>
       <c r="B21" s="47" t="s">
@@ -2355,7 +2364,7 @@
         <f t="shared" si="33"/>
         <v>815.87833333333333</v>
       </c>
-      <c r="E21" s="71"/>
+      <c r="E21" s="87"/>
       <c r="F21" s="15">
         <v>812</v>
       </c>
@@ -2372,7 +2381,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="78">
+      <c r="N21" s="77">
         <v>45676</v>
       </c>
       <c r="O21" s="13"/>
@@ -2406,7 +2415,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="13" t="s">
         <v>45</v>
       </c>
@@ -2434,7 +2443,7 @@
       <c r="K22" s="29"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="79"/>
+      <c r="N22" s="78"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="19">
@@ -2559,7 +2568,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="78">
+      <c r="N24" s="77">
         <v>45697</v>
       </c>
       <c r="O24" s="13"/>
@@ -2621,7 +2630,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="79"/>
+      <c r="N25" s="78"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="19">
@@ -2716,11 +2725,75 @@
         <v>50</v>
       </c>
     </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="70">
+        <v>14</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="72">
+        <v>30</v>
+      </c>
+      <c r="D27" s="10">
+        <f>(C26*F26+C27*F27)/(C26+C27)</f>
+        <v>831.79307692307702</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="72">
+        <v>814.97</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="20">
+        <f t="shared" ref="H27" si="47">I27+R27+T27+U27+V27+W27</f>
+        <v>24590.784125000002</v>
+      </c>
+      <c r="I27" s="72">
+        <f t="shared" ref="I27" si="48">C27*F27</f>
+        <v>24449.100000000002</v>
+      </c>
+      <c r="J27" s="72"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="71">
+        <v>45722</v>
+      </c>
+      <c r="O27" s="70"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="19">
+        <f t="shared" ref="Q27" si="49">IF(I27&gt;50000,0.33%*I27,0.36%*I27)</f>
+        <v>88.016760000000005</v>
+      </c>
+      <c r="R27" s="19">
+        <f t="shared" ref="R27" si="50">0.015%*I27</f>
+        <v>3.6673650000000002</v>
+      </c>
+      <c r="S27" s="19">
+        <f t="shared" ref="S27" si="51">(0.36+0.015)%*F27+F27</f>
+        <v>818.0261375</v>
+      </c>
+      <c r="T27" s="19">
+        <f t="shared" ref="T27" si="52">Q27*20%</f>
+        <v>17.603352000000001</v>
+      </c>
+      <c r="U27" s="19">
+        <f t="shared" ref="U27" si="53">0.6%*Q27</f>
+        <v>0.52810056000000005</v>
+      </c>
+      <c r="V27" s="19">
+        <f t="shared" ref="V27" si="54">79.4%*Q27</f>
+        <v>69.885307440000005</v>
+      </c>
+      <c r="W27" s="70">
+        <v>50</v>
+      </c>
+    </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H28" s="2">
         <v>80697.86</v>
       </c>
-      <c r="I28" s="88">
+      <c r="I28" s="73">
         <f>H28-H29</f>
         <v>-23.619325000006938</v>
       </c>
@@ -2740,7 +2813,7 @@
         <v>150</v>
       </c>
       <c r="D29" s="29">
-        <f t="shared" ref="D29" si="47">H29/C29</f>
+        <f t="shared" ref="D29" si="55">H29/C29</f>
         <v>538.14319550000005</v>
       </c>
       <c r="E29" s="10"/>
@@ -2753,7 +2826,7 @@
         <v>80721.479325000008</v>
       </c>
       <c r="I29" s="66">
-        <f t="shared" ref="I29" si="48">C29*F29</f>
+        <f t="shared" ref="I29" si="56">C29*F29</f>
         <v>80395.5</v>
       </c>
       <c r="J29" s="66"/>
@@ -2769,22 +2842,22 @@
         <v>289.42</v>
       </c>
       <c r="R29" s="19">
-        <f t="shared" ref="R29" si="49">0.015%*I29</f>
+        <f t="shared" ref="R29" si="57">0.015%*I29</f>
         <v>12.059324999999999</v>
       </c>
       <c r="S29" s="19">
         <v>537.97667000000001</v>
       </c>
       <c r="T29" s="19">
-        <f t="shared" ref="T29" si="50">Q29*20%</f>
+        <f t="shared" ref="T29" si="58">Q29*20%</f>
         <v>57.884000000000007</v>
       </c>
       <c r="U29" s="19">
-        <f t="shared" ref="U29" si="51">0.6%*Q29</f>
+        <f t="shared" ref="U29" si="59">0.6%*Q29</f>
         <v>1.7365200000000001</v>
       </c>
       <c r="V29" s="19">
-        <f t="shared" ref="V29" si="52">79.4%*Q29</f>
+        <f t="shared" ref="V29" si="60">79.4%*Q29</f>
         <v>229.79948000000002</v>
       </c>
       <c r="W29" s="65">
@@ -2802,7 +2875,7 @@
         <v>150</v>
       </c>
       <c r="D30" s="29">
-        <f t="shared" ref="D30" si="53">H30/C30</f>
+        <f t="shared" ref="D30" si="61">H30/C30</f>
         <v>538.14652883333338</v>
       </c>
       <c r="E30" s="10"/>
@@ -2811,11 +2884,11 @@
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="20">
-        <f t="shared" ref="H30" si="54">I30+R30+T30+U30+V30+W30</f>
+        <f t="shared" ref="H30" si="62">I30+R30+T30+U30+V30+W30</f>
         <v>80721.979325000008</v>
       </c>
       <c r="I30" s="66">
-        <f t="shared" ref="I30" si="55">C30*F30</f>
+        <f t="shared" ref="I30" si="63">C30*F30</f>
         <v>80395.5</v>
       </c>
       <c r="J30" s="66"/>
@@ -2831,7 +2904,7 @@
         <v>289.42</v>
       </c>
       <c r="R30" s="19">
-        <f t="shared" ref="R30" si="56">0.015%*I30</f>
+        <f t="shared" ref="R30" si="64">0.015%*I30</f>
         <v>12.059324999999999</v>
       </c>
       <c r="S30" s="19">
@@ -2839,15 +2912,15 @@
         <v>537.8190965</v>
       </c>
       <c r="T30" s="19">
-        <f t="shared" ref="T30" si="57">Q30*20%</f>
+        <f t="shared" ref="T30" si="65">Q30*20%</f>
         <v>57.884000000000007</v>
       </c>
       <c r="U30" s="19">
-        <f t="shared" ref="U30" si="58">0.6%*Q30</f>
+        <f t="shared" ref="U30" si="66">0.6%*Q30</f>
         <v>1.7365200000000001</v>
       </c>
       <c r="V30" s="19">
-        <f t="shared" ref="V30" si="59">79.4%*Q30</f>
+        <f t="shared" ref="V30" si="67">79.4%*Q30</f>
         <v>229.79948000000002</v>
       </c>
       <c r="W30" s="65">
@@ -2856,6 +2929,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="N7:N12"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="N21:N22"/>
@@ -2865,12 +2944,6 @@
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="E19:E21"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="N7:N12"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2882,9 +2955,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W26" sqref="W26"/>
+      <selection pane="bottomLeft" activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2931,10 +3004,10 @@
       <c r="E1" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="73"/>
+      <c r="G1" s="89"/>
       <c r="H1" s="42" t="s">
         <v>3</v>
       </c>
@@ -3002,7 +3075,7 @@
         <v>270.07504166666666</v>
       </c>
       <c r="F2" s="43">
-        <f>C2*D2</f>
+        <f t="shared" ref="F2:F23" si="0">C2*D2</f>
         <v>27700</v>
       </c>
       <c r="G2" s="43"/>
@@ -3039,7 +3112,7 @@
         <v>79.177680000000009</v>
       </c>
       <c r="Q2" s="32">
-        <f>IF(E2&gt;D2,0,(((D2*C2-E2*C2)-L2-M2-O2-N2-P2)*7.5%))</f>
+        <f t="shared" ref="Q2:Q9" si="1">IF(E2&gt;D2,0,(((D2*C2-E2*C2)-L2-M2-O2-N2-P2)*7.5%))</f>
         <v>42.27156250000008</v>
       </c>
       <c r="R2" s="32">
@@ -3047,7 +3120,7 @@
         <v>27553.853437499998</v>
       </c>
       <c r="S2" s="32">
-        <f>R2/C2</f>
+        <f t="shared" ref="S2:S23" si="2">R2/C2</f>
         <v>275.53853437499998</v>
       </c>
       <c r="T2" s="32">
@@ -3055,7 +3128,7 @@
         <v>27528.853437499998</v>
       </c>
       <c r="U2" s="67">
-        <f t="shared" ref="U2:U13" si="0">T2-9.667-O2</f>
+        <f t="shared" ref="U2:U13" si="3">T2-9.667-O2</f>
         <v>27518.588117499996</v>
       </c>
       <c r="V2" s="32">
@@ -3085,7 +3158,7 @@
         <v>270.07504166666666</v>
       </c>
       <c r="F3" s="43">
-        <f>C3*D3</f>
+        <f t="shared" si="0"/>
         <v>14450</v>
       </c>
       <c r="G3" s="43"/>
@@ -3099,7 +3172,7 @@
         <v>45628</v>
       </c>
       <c r="K3" s="32">
-        <f t="shared" ref="K3:K9" si="1">IF(0.36%*F3&lt;10,10,0.36%*F3)</f>
+        <f t="shared" ref="K3:K9" si="4">IF(0.36%*F3&lt;10,10,0.36%*F3)</f>
         <v>52.019999999999996</v>
       </c>
       <c r="L3" s="32">
@@ -3122,7 +3195,7 @@
         <v>41.303879999999999</v>
       </c>
       <c r="Q3" s="32">
-        <f>IF(E3&gt;D3,0,(((D3*C3-E3*C3)-L3-M3-O3-N3-P3)*7.5%))</f>
+        <f t="shared" si="1"/>
         <v>65.029531250000019</v>
       </c>
       <c r="R3" s="32">
@@ -3130,7 +3203,7 @@
         <v>14330.78296875</v>
       </c>
       <c r="S3" s="32">
-        <f>R3/C3</f>
+        <f t="shared" si="2"/>
         <v>286.61565937500001</v>
       </c>
       <c r="T3" s="32">
@@ -3138,7 +3211,7 @@
         <v>14305.78296875</v>
       </c>
       <c r="U3" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14295.80384875</v>
       </c>
       <c r="V3" s="32">
@@ -3165,7 +3238,7 @@
         <v>527.59375</v>
       </c>
       <c r="F4" s="43">
-        <f>C4*D4</f>
+        <f t="shared" si="0"/>
         <v>10004</v>
       </c>
       <c r="G4" s="43"/>
@@ -3179,7 +3252,7 @@
         <v>45652</v>
       </c>
       <c r="K4" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>36.014400000000002</v>
       </c>
       <c r="L4" s="32">
@@ -3202,7 +3275,7 @@
         <v>28.595433600000003</v>
       </c>
       <c r="Q4" s="32">
-        <f>IF(E4&gt;D4,0,(((D4*C4-E4*C4)-L4-M4-O4-N4-P4)*7.5%))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R4" s="32">
@@ -3210,7 +3283,7 @@
         <v>9966.4850000000006</v>
       </c>
       <c r="S4" s="32">
-        <f>R4/C4</f>
+        <f t="shared" si="2"/>
         <v>498.32425000000001</v>
       </c>
       <c r="T4" s="32">
@@ -3218,20 +3291,20 @@
         <v>9941.4850000000006</v>
       </c>
       <c r="U4" s="67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9931.6019136000014</v>
       </c>
       <c r="V4" s="32">
         <f>I4-U4</f>
         <v>4.2280863999985741</v>
       </c>
-      <c r="W4" s="91">
+      <c r="W4" s="74">
         <f>T12+T4-9.667-O4-O12-Buy!H6</f>
         <v>-267.27631140000085</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85">
+      <c r="A5" s="96">
         <v>4</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -3248,24 +3321,24 @@
         <v>408.57175000000001</v>
       </c>
       <c r="F5" s="43">
-        <f>C5*D5</f>
+        <f t="shared" si="0"/>
         <v>8700</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="96">
         <f>SUM(F5:F6)</f>
         <v>17150</v>
       </c>
-      <c r="H5" s="86">
+      <c r="H5" s="97">
         <v>45655</v>
       </c>
-      <c r="I5" s="87">
+      <c r="I5" s="95">
         <v>16695.41</v>
       </c>
-      <c r="J5" s="86">
+      <c r="J5" s="97">
         <v>45659</v>
       </c>
       <c r="K5" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>31.32</v>
       </c>
       <c r="L5" s="32">
@@ -3288,7 +3361,7 @@
         <v>24.868080000000003</v>
       </c>
       <c r="Q5" s="32">
-        <f>IF(E5&gt;D5,0,(((D5*C5-E5*C5)-L5-M5-O5-N5-P5)*7.5%))</f>
+        <f t="shared" si="1"/>
         <v>35.320499999999967</v>
       </c>
       <c r="R5" s="32">
@@ -3296,28 +3369,28 @@
         <v>8632.0545000000002</v>
       </c>
       <c r="S5" s="32">
-        <f>R5/C5</f>
+        <f t="shared" si="2"/>
         <v>431.60272500000002</v>
       </c>
       <c r="T5" s="32">
         <f>R5-M5</f>
         <v>8607.0545000000002</v>
       </c>
-      <c r="U5" s="87">
+      <c r="U5" s="95">
         <f>SUM(T5:T6)-9.667-O5-O6</f>
         <v>16691.0186225</v>
       </c>
-      <c r="V5" s="89">
+      <c r="V5" s="93">
         <f>I5-U5</f>
         <v>4.3913775000000896</v>
       </c>
-      <c r="W5" s="91">
+      <c r="W5" s="74">
         <f>T5-9.67-O5-Buy!H10</f>
         <v>425.76157999999941</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="85"/>
+      <c r="A6" s="96"/>
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
@@ -3332,15 +3405,15 @@
         <v>440.25</v>
       </c>
       <c r="F6" s="10">
-        <f>C6*D6</f>
+        <f t="shared" si="0"/>
         <v>8450</v>
       </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="86"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="97"/>
       <c r="K6" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>30.419999999999998</v>
       </c>
       <c r="L6" s="29">
@@ -3363,7 +3436,7 @@
         <v>24.153479999999998</v>
       </c>
       <c r="Q6" s="29">
-        <f>IF(E6&gt;D6,0,(((D6*C6-E6*C6)-L6-M6-O6-N6-P6)*7.5%))</f>
+        <f t="shared" si="1"/>
         <v>299.31093750000002</v>
       </c>
       <c r="R6" s="29">
@@ -3371,18 +3444,18 @@
         <v>8119.0015624999996</v>
       </c>
       <c r="S6" s="29">
-        <f>R6/C6</f>
+        <f t="shared" si="2"/>
         <v>811.90015625000001</v>
       </c>
       <c r="T6" s="29">
         <f>R6-M6</f>
         <v>8094.0015624999996</v>
       </c>
-      <c r="U6" s="87"/>
-      <c r="V6" s="90"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="94"/>
     </row>
     <row r="7" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="85">
+      <c r="A7" s="96">
         <v>5</v>
       </c>
       <c r="B7" s="43" t="s">
@@ -3399,76 +3472,76 @@
         <v>247.51537500000001</v>
       </c>
       <c r="F7" s="43">
-        <f>C7*D7</f>
+        <f t="shared" si="0"/>
         <v>2551</v>
       </c>
-      <c r="G7" s="85">
+      <c r="G7" s="96">
         <f>SUM(F7:F9)</f>
         <v>17752</v>
       </c>
-      <c r="H7" s="86">
+      <c r="H7" s="97">
         <v>45663</v>
       </c>
-      <c r="I7" s="87">
+      <c r="I7" s="95">
         <v>17564.150000000001</v>
       </c>
-      <c r="J7" s="86">
+      <c r="J7" s="97">
         <v>45676</v>
       </c>
       <c r="K7" s="59">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="L7" s="59">
+        <f t="shared" ref="L7:L9" si="5">0.015%*F7</f>
+        <v>0.38264999999999999</v>
+      </c>
+      <c r="M7" s="59">
+        <v>25</v>
+      </c>
+      <c r="N7" s="59">
+        <f t="shared" ref="N7:N9" si="6">20%*K7</f>
+        <v>2</v>
+      </c>
+      <c r="O7" s="59">
+        <f t="shared" ref="O7:O9" si="7">0.6%*K7</f>
+        <v>0.06</v>
+      </c>
+      <c r="P7" s="59">
+        <f t="shared" ref="P7:P9" si="8">79.4%*K7</f>
+        <v>7.94</v>
+      </c>
+      <c r="Q7" s="59">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L7" s="59">
-        <f t="shared" ref="L7:L9" si="2">0.015%*F7</f>
-        <v>0.38264999999999999</v>
-      </c>
-      <c r="M7" s="59">
-        <v>25</v>
-      </c>
-      <c r="N7" s="59">
-        <f t="shared" ref="N7:N9" si="3">20%*K7</f>
-        <v>2</v>
-      </c>
-      <c r="O7" s="59">
-        <f t="shared" ref="O7:O9" si="4">0.6%*K7</f>
-        <v>0.06</v>
-      </c>
-      <c r="P7" s="59">
-        <f t="shared" ref="P7:P9" si="5">79.4%*K7</f>
-        <v>7.94</v>
-      </c>
-      <c r="Q7" s="59">
-        <f>IF(E7&gt;D7,0,(((D7*C7-E7*C7)-L7-M7-O7-N7-P7)*7.5%))</f>
         <v>3.034770000000004</v>
       </c>
       <c r="R7" s="59">
-        <f t="shared" ref="R7:R9" si="6">F7-K7-Q7-L7</f>
+        <f t="shared" ref="R7:R9" si="9">F7-K7-Q7-L7</f>
         <v>2537.5825799999998</v>
       </c>
       <c r="S7" s="59">
-        <f>R7/C7</f>
+        <f t="shared" si="2"/>
         <v>253.75825799999998</v>
       </c>
       <c r="T7" s="59">
-        <f t="shared" ref="T7:T9" si="7">R7-M7</f>
+        <f t="shared" ref="T7:T9" si="10">R7-M7</f>
         <v>2512.5825799999998</v>
       </c>
-      <c r="U7" s="87">
+      <c r="U7" s="95">
         <f>SUM(T7:T9)-9.667-O7-O8-O9</f>
         <v>17559.651332149995</v>
       </c>
-      <c r="V7" s="87">
+      <c r="V7" s="95">
         <f>(I7-(U7+U8+U9))</f>
         <v>4.4986678500063135</v>
       </c>
-      <c r="W7" s="91">
+      <c r="W7" s="74">
         <f>T7-9.67-O7-Buy!H7</f>
         <v>27.698829999999816</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="43" t="s">
         <v>11</v>
       </c>
@@ -3483,61 +3556,61 @@
         <v>255.09837500000003</v>
       </c>
       <c r="F8" s="43">
-        <f>C8*D8</f>
+        <f t="shared" si="0"/>
         <v>5330</v>
       </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="86"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="97"/>
       <c r="K8" s="59">
+        <f t="shared" si="4"/>
+        <v>19.187999999999999</v>
+      </c>
+      <c r="L8" s="59">
+        <f t="shared" si="5"/>
+        <v>0.79949999999999988</v>
+      </c>
+      <c r="M8" s="59">
+        <v>25</v>
+      </c>
+      <c r="N8" s="59">
+        <f t="shared" si="6"/>
+        <v>3.8376000000000001</v>
+      </c>
+      <c r="O8" s="59">
+        <f t="shared" si="7"/>
+        <v>0.11512799999999999</v>
+      </c>
+      <c r="P8" s="59">
+        <f t="shared" si="8"/>
+        <v>15.235272</v>
+      </c>
+      <c r="Q8" s="59">
         <f t="shared" si="1"/>
-        <v>19.187999999999999</v>
-      </c>
-      <c r="L8" s="59">
+        <v>13.72837499999995</v>
+      </c>
+      <c r="R8" s="59">
+        <f t="shared" si="9"/>
+        <v>5296.2841250000001</v>
+      </c>
+      <c r="S8" s="59">
         <f t="shared" si="2"/>
-        <v>0.79949999999999988</v>
-      </c>
-      <c r="M8" s="59">
-        <v>25</v>
-      </c>
-      <c r="N8" s="59">
-        <f t="shared" si="3"/>
-        <v>3.8376000000000001</v>
-      </c>
-      <c r="O8" s="59">
-        <f t="shared" si="4"/>
-        <v>0.11512799999999999</v>
-      </c>
-      <c r="P8" s="59">
-        <f t="shared" si="5"/>
-        <v>15.235272</v>
-      </c>
-      <c r="Q8" s="59">
-        <f>IF(E8&gt;D8,0,(((D8*C8-E8*C8)-L8-M8-O8-N8-P8)*7.5%))</f>
-        <v>13.72837499999995</v>
-      </c>
-      <c r="R8" s="59">
-        <f t="shared" si="6"/>
-        <v>5296.2841250000001</v>
-      </c>
-      <c r="S8" s="59">
-        <f>R8/C8</f>
         <v>264.81420624999998</v>
       </c>
       <c r="T8" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5271.2841250000001</v>
       </c>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="91">
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="74">
         <f>T8-9.67-O8-Buy!H8</f>
         <v>159.53149699999904</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="43" t="s">
         <v>13</v>
       </c>
@@ -3552,55 +3625,55 @@
         <v>475.02</v>
       </c>
       <c r="F9" s="43">
-        <f>C9*D9</f>
+        <f t="shared" si="0"/>
         <v>9871</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="86"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="97"/>
       <c r="K9" s="59">
+        <f t="shared" si="4"/>
+        <v>35.535600000000002</v>
+      </c>
+      <c r="L9" s="59">
+        <f t="shared" si="5"/>
+        <v>1.4806499999999998</v>
+      </c>
+      <c r="M9" s="59">
+        <v>25</v>
+      </c>
+      <c r="N9" s="59">
+        <f t="shared" si="6"/>
+        <v>7.107120000000001</v>
+      </c>
+      <c r="O9" s="59">
+        <f t="shared" si="7"/>
+        <v>0.21321360000000003</v>
+      </c>
+      <c r="P9" s="59">
+        <f t="shared" si="8"/>
+        <v>28.215266400000004</v>
+      </c>
+      <c r="Q9" s="59">
         <f t="shared" si="1"/>
-        <v>35.535600000000002</v>
-      </c>
-      <c r="L9" s="59">
+        <v>23.143781250000021</v>
+      </c>
+      <c r="R9" s="59">
+        <f t="shared" si="9"/>
+        <v>9810.8399687500005</v>
+      </c>
+      <c r="S9" s="59">
         <f t="shared" si="2"/>
-        <v>1.4806499999999998</v>
-      </c>
-      <c r="M9" s="59">
-        <v>25</v>
-      </c>
-      <c r="N9" s="59">
-        <f t="shared" si="3"/>
-        <v>7.107120000000001</v>
-      </c>
-      <c r="O9" s="59">
-        <f t="shared" si="4"/>
-        <v>0.21321360000000003</v>
-      </c>
-      <c r="P9" s="59">
-        <f t="shared" si="5"/>
-        <v>28.215266400000004</v>
-      </c>
-      <c r="Q9" s="59">
-        <f>IF(E9&gt;D9,0,(((D9*C9-E9*C9)-L9-M9-O9-N9-P9)*7.5%))</f>
-        <v>23.143781250000021</v>
-      </c>
-      <c r="R9" s="59">
-        <f t="shared" si="6"/>
-        <v>9810.8399687500005</v>
-      </c>
-      <c r="S9" s="59">
-        <f>R9/C9</f>
         <v>490.54199843750001</v>
       </c>
       <c r="T9" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9785.8399687500005</v>
       </c>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="91">
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="74">
         <f>T9-9.67-O9-Buy!H11</f>
         <v>275.55675515000075</v>
       </c>
@@ -3623,11 +3696,11 @@
         <v>404.54545454545456</v>
       </c>
       <c r="F10" s="10">
-        <f>C10*D10</f>
+        <f t="shared" si="0"/>
         <v>5534.1</v>
       </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="94">
+      <c r="H10" s="76">
         <v>45665</v>
       </c>
       <c r="I10" s="29">
@@ -3637,26 +3710,26 @@
         <v>45669</v>
       </c>
       <c r="K10" s="29">
-        <f t="shared" ref="K10" si="8">IF(0.36%*F10&lt;10,10,0.36%*F10)</f>
+        <f t="shared" ref="K10" si="11">IF(0.36%*F10&lt;10,10,0.36%*F10)</f>
         <v>19.92276</v>
       </c>
       <c r="L10" s="29">
-        <f t="shared" ref="L10" si="9">0.015%*F10</f>
+        <f t="shared" ref="L10" si="12">0.015%*F10</f>
         <v>0.83011499999999994</v>
       </c>
       <c r="M10" s="29">
         <v>25</v>
       </c>
       <c r="N10" s="29">
-        <f t="shared" ref="N10" si="10">20%*K10</f>
+        <f t="shared" ref="N10" si="13">20%*K10</f>
         <v>3.9845520000000003</v>
       </c>
       <c r="O10" s="29">
-        <f t="shared" ref="O10" si="11">0.6%*K10</f>
+        <f t="shared" ref="O10" si="14">0.6%*K10</f>
         <v>0.11953656</v>
       </c>
       <c r="P10" s="29">
-        <f t="shared" ref="P10" si="12">79.4%*K10</f>
+        <f t="shared" ref="P10" si="15">79.4%*K10</f>
         <v>15.818671440000001</v>
       </c>
       <c r="Q10" s="29">
@@ -3664,19 +3737,19 @@
         <v>51.91735625000004</v>
       </c>
       <c r="R10" s="29">
-        <f t="shared" ref="R10" si="13">F10-K10-Q10-L10</f>
+        <f t="shared" ref="R10" si="16">F10-K10-Q10-L10</f>
         <v>5461.4297687500002</v>
       </c>
       <c r="S10" s="29">
-        <f>R10/C10</f>
+        <f t="shared" si="2"/>
         <v>496.49361534090912</v>
       </c>
       <c r="T10" s="29">
-        <f t="shared" ref="T10" si="14">R10-M10</f>
+        <f t="shared" ref="T10" si="17">R10-M10</f>
         <v>5436.4297687500002</v>
       </c>
       <c r="U10" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5426.6432321900002</v>
       </c>
       <c r="V10" s="29">
@@ -3685,7 +3758,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85">
+      <c r="A11" s="96">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -3702,43 +3775,43 @@
         <v>584.40807354761898</v>
       </c>
       <c r="F11" s="10">
-        <f>C11*D11</f>
+        <f t="shared" si="0"/>
         <v>16269</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="96">
         <f>SUM(F11:F12)</f>
         <v>27269</v>
       </c>
-      <c r="H11" s="86">
+      <c r="H11" s="97">
         <v>45670</v>
       </c>
-      <c r="I11" s="87">
+      <c r="I11" s="95">
         <v>27082.45</v>
       </c>
-      <c r="J11" s="86">
+      <c r="J11" s="97">
         <v>45674</v>
       </c>
       <c r="K11" s="29">
-        <f t="shared" ref="K11:K17" si="15">IF(0.36%*F11&lt;10,10,0.36%*F11)</f>
+        <f t="shared" ref="K11:K17" si="18">IF(0.36%*F11&lt;10,10,0.36%*F11)</f>
         <v>58.568399999999997</v>
       </c>
       <c r="L11" s="29">
-        <f t="shared" ref="L11:L17" si="16">0.015%*F11</f>
+        <f t="shared" ref="L11:L17" si="19">0.015%*F11</f>
         <v>2.4403499999999996</v>
       </c>
       <c r="M11" s="29">
         <v>25</v>
       </c>
       <c r="N11" s="29">
-        <f t="shared" ref="N11:N17" si="17">20%*K11</f>
+        <f t="shared" ref="N11:N17" si="20">20%*K11</f>
         <v>11.71368</v>
       </c>
       <c r="O11" s="29">
-        <f t="shared" ref="O11:O17" si="18">0.6%*K11</f>
+        <f t="shared" ref="O11:O17" si="21">0.6%*K11</f>
         <v>0.35141040000000001</v>
       </c>
       <c r="P11" s="29">
-        <f t="shared" ref="P11:P17" si="19">79.4%*K11</f>
+        <f t="shared" ref="P11:P17" si="22">79.4%*K11</f>
         <v>46.503309600000001</v>
       </c>
       <c r="Q11" s="29">
@@ -3746,28 +3819,28 @@
         <v>0</v>
       </c>
       <c r="R11" s="29">
-        <f t="shared" ref="R11:R12" si="20">F11-K11-Q11-L11</f>
+        <f t="shared" ref="R11:R12" si="23">F11-K11-Q11-L11</f>
         <v>16207.991249999999</v>
       </c>
       <c r="S11" s="29">
-        <f>R11/C11</f>
+        <f t="shared" si="2"/>
         <v>491.15124999999995</v>
       </c>
       <c r="T11" s="29">
-        <f t="shared" ref="T11:T12" si="21">R11-M11</f>
+        <f t="shared" ref="T11:T12" si="24">R11-M11</f>
         <v>16182.991249999999</v>
       </c>
-      <c r="U11" s="87">
+      <c r="U11" s="95">
         <f>SUM(T11:T12)-9.667-O11-O12</f>
         <v>27077.844614599999</v>
       </c>
-      <c r="V11" s="89">
+      <c r="V11" s="93">
         <f>I11-U11</f>
         <v>4.6053854000019783</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85"/>
+      <c r="A12" s="96"/>
       <c r="B12" s="43" t="s">
         <v>9</v>
       </c>
@@ -3782,34 +3855,34 @@
         <v>527.59375</v>
       </c>
       <c r="F12" s="43">
-        <f>C12*D12</f>
+        <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="G12" s="85"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="86"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="97"/>
       <c r="K12" s="59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>39.6</v>
       </c>
       <c r="L12" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1.65</v>
       </c>
       <c r="M12" s="59">
         <v>25</v>
       </c>
       <c r="N12" s="59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7.9200000000000008</v>
       </c>
       <c r="O12" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.23760000000000001</v>
       </c>
       <c r="P12" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>31.442400000000003</v>
       </c>
       <c r="Q12" s="59">
@@ -3817,19 +3890,19 @@
         <v>28.640625</v>
       </c>
       <c r="R12" s="59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>10930.109375</v>
       </c>
       <c r="S12" s="59">
-        <f>R12/C12</f>
+        <f t="shared" si="2"/>
         <v>546.50546874999998</v>
       </c>
       <c r="T12" s="59">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>10905.109375</v>
       </c>
-      <c r="U12" s="87"/>
-      <c r="V12" s="90"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="94"/>
     </row>
     <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -3848,11 +3921,11 @@
         <v>768.2</v>
       </c>
       <c r="F13" s="10">
-        <f>C13*D13</f>
+        <f t="shared" si="0"/>
         <v>29508.15</v>
       </c>
       <c r="G13" s="10"/>
-      <c r="H13" s="94">
+      <c r="H13" s="76">
         <v>45680</v>
       </c>
       <c r="I13" s="29">
@@ -3862,26 +3935,26 @@
         <v>45693</v>
       </c>
       <c r="K13" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>106.22934000000001</v>
       </c>
       <c r="L13" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>4.4262224999999997</v>
       </c>
       <c r="M13" s="29">
         <v>25</v>
       </c>
       <c r="N13" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>21.245868000000002</v>
       </c>
       <c r="O13" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.63737604000000003</v>
       </c>
       <c r="P13" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>84.346095960000014</v>
       </c>
       <c r="Q13" s="29">
@@ -3889,19 +3962,19 @@
         <v>186.41208281250007</v>
       </c>
       <c r="R13" s="29">
-        <f t="shared" ref="R13" si="22">F13-K13-Q13-L13</f>
+        <f t="shared" ref="R13" si="25">F13-K13-Q13-L13</f>
         <v>29211.0823546875</v>
       </c>
       <c r="S13" s="29">
-        <f>R13/C13</f>
+        <f t="shared" si="2"/>
         <v>834.60235299107137</v>
       </c>
       <c r="T13" s="29">
-        <f t="shared" ref="T13" si="23">R13-M13</f>
+        <f t="shared" ref="T13" si="26">R13-M13</f>
         <v>29186.0823546875</v>
       </c>
       <c r="U13" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>29175.7779786475</v>
       </c>
       <c r="V13" s="29">
@@ -3927,7 +4000,7 @@
         <v>2289.0425000000005</v>
       </c>
       <c r="F14" s="43">
-        <f>C14*D14</f>
+        <f t="shared" si="0"/>
         <v>22940</v>
       </c>
       <c r="G14" s="43"/>
@@ -3941,26 +4014,26 @@
         <v>45694</v>
       </c>
       <c r="K14" s="59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>82.584000000000003</v>
       </c>
       <c r="L14" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3.4409999999999998</v>
       </c>
       <c r="M14" s="59">
         <v>25</v>
       </c>
       <c r="N14" s="59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>16.5168</v>
       </c>
       <c r="O14" s="59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.49550400000000006</v>
       </c>
       <c r="P14" s="59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>65.571696000000003</v>
       </c>
       <c r="Q14" s="59">
@@ -3968,15 +4041,15 @@
         <v>0</v>
       </c>
       <c r="R14" s="59">
-        <f t="shared" ref="R14:R16" si="24">F14-K14-Q14-L14</f>
+        <f t="shared" ref="R14:R16" si="27">F14-K14-Q14-L14</f>
         <v>22853.975000000002</v>
       </c>
       <c r="S14" s="59">
-        <f>R14/C14</f>
+        <f t="shared" si="2"/>
         <v>2285.3975</v>
       </c>
       <c r="T14" s="59">
-        <f t="shared" ref="T14:T16" si="25">R14-M14</f>
+        <f t="shared" ref="T14:T16" si="28">R14-M14</f>
         <v>22828.975000000002</v>
       </c>
       <c r="U14" s="67">
@@ -3987,7 +4060,7 @@
         <f>I14-U14</f>
         <v>4.5175039999994624</v>
       </c>
-      <c r="W14" s="91">
+      <c r="W14" s="74">
         <f>I14-Buy!H22</f>
         <v>-67.095000000001164</v>
       </c>
@@ -4009,40 +4082,40 @@
         <v>768.2</v>
       </c>
       <c r="F15" s="10">
-        <f>C15*D15</f>
+        <f t="shared" si="0"/>
         <v>30345</v>
       </c>
       <c r="G15" s="10"/>
-      <c r="H15" s="94">
+      <c r="H15" s="76">
         <v>45685</v>
       </c>
-      <c r="I15" s="85">
+      <c r="I15" s="96">
         <v>65490.16</v>
       </c>
-      <c r="J15" s="86">
+      <c r="J15" s="97">
         <v>45697</v>
       </c>
       <c r="K15" s="29">
-        <f t="shared" ref="K15" si="26">IF(0.36%*F15&lt;10,10,0.36%*F15)</f>
+        <f t="shared" ref="K15" si="29">IF(0.36%*F15&lt;10,10,0.36%*F15)</f>
         <v>109.24199999999999</v>
       </c>
       <c r="L15" s="29">
-        <f t="shared" ref="L15" si="27">0.015%*F15</f>
+        <f t="shared" ref="L15" si="30">0.015%*F15</f>
         <v>4.5517499999999993</v>
       </c>
       <c r="M15" s="29">
         <v>25</v>
       </c>
       <c r="N15" s="29">
-        <f t="shared" ref="N15" si="28">20%*K15</f>
+        <f t="shared" ref="N15" si="31">20%*K15</f>
         <v>21.848399999999998</v>
       </c>
       <c r="O15" s="29">
-        <f t="shared" ref="O15" si="29">0.6%*K15</f>
+        <f t="shared" ref="O15" si="32">0.6%*K15</f>
         <v>0.65545199999999992</v>
       </c>
       <c r="P15" s="29">
-        <f t="shared" ref="P15" si="30">79.4%*K15</f>
+        <f t="shared" ref="P15" si="33">79.4%*K15</f>
         <v>86.738147999999995</v>
       </c>
       <c r="Q15" s="29">
@@ -4050,22 +4123,22 @@
         <v>248.94046875000001</v>
       </c>
       <c r="R15" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>29982.265781250004</v>
       </c>
       <c r="S15" s="29">
-        <f>R15/C15</f>
+        <f t="shared" si="2"/>
         <v>856.63616517857156</v>
       </c>
       <c r="T15" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>29957.265781250004</v>
       </c>
-      <c r="U15" s="87">
+      <c r="U15" s="95">
         <f>SUM(T15:T16)-9.667-O15-O16</f>
         <v>65490.357549250002</v>
       </c>
-      <c r="V15" s="89">
+      <c r="V15" s="93">
         <f>I15-U15</f>
         <v>-0.19754924999870127</v>
       </c>
@@ -4088,36 +4161,36 @@
         <v>858.83124999999995</v>
       </c>
       <c r="F16" s="68">
-        <f>C16*D16</f>
+        <f t="shared" si="0"/>
         <v>35800</v>
       </c>
       <c r="G16" s="68"/>
       <c r="H16" s="31">
         <v>45691</v>
       </c>
-      <c r="I16" s="85"/>
-      <c r="J16" s="86"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="97"/>
       <c r="K16" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>128.88</v>
       </c>
       <c r="L16" s="67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>5.3699999999999992</v>
       </c>
       <c r="M16" s="67">
         <v>25</v>
       </c>
       <c r="N16" s="67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>25.776</v>
       </c>
       <c r="O16" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.77327999999999997</v>
       </c>
       <c r="P16" s="67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>102.33072</v>
       </c>
       <c r="Q16" s="67">
@@ -4125,20 +4198,20 @@
         <v>96.5625</v>
       </c>
       <c r="R16" s="67">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>35569.1875</v>
       </c>
       <c r="S16" s="67">
-        <f>R16/C16</f>
+        <f t="shared" si="2"/>
         <v>889.22968749999995</v>
       </c>
       <c r="T16" s="67">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>35544.1875</v>
       </c>
-      <c r="U16" s="87"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="91">
+      <c r="U16" s="95"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="74">
         <f>T16-9.67-O16-Buy!H13</f>
         <v>1180.4942200000005</v>
       </c>
@@ -4161,7 +4234,7 @@
         <v>411.95416666666665</v>
       </c>
       <c r="F17" s="68">
-        <f>C17*D17</f>
+        <f t="shared" si="0"/>
         <v>25728</v>
       </c>
       <c r="G17" s="68"/>
@@ -4175,26 +4248,26 @@
         <v>45713</v>
       </c>
       <c r="K17" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>92.620800000000003</v>
       </c>
       <c r="L17" s="67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3.8591999999999995</v>
       </c>
       <c r="M17" s="67">
         <v>25</v>
       </c>
       <c r="N17" s="67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>18.524160000000002</v>
       </c>
       <c r="O17" s="67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.55572480000000002</v>
       </c>
       <c r="P17" s="67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>73.540915200000001</v>
       </c>
       <c r="Q17" s="67">
@@ -4206,7 +4279,7 @@
         <v>25564.82475</v>
       </c>
       <c r="S17" s="67">
-        <f>R17/C17</f>
+        <f t="shared" si="2"/>
         <v>426.08041250000002</v>
       </c>
       <c r="T17" s="67">
@@ -4221,13 +4294,13 @@
         <f>I17-U17</f>
         <v>4.5679748000002292</v>
       </c>
-      <c r="W17" s="93">
+      <c r="W17" s="75">
         <f>I17-Buy!H15</f>
         <v>816.91999999999825</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="85">
+      <c r="A18" s="96">
         <v>13</v>
       </c>
       <c r="B18" s="68" t="str">
@@ -4246,17 +4319,17 @@
         <v>283.57074999999998</v>
       </c>
       <c r="F18" s="68">
-        <f>C18*D18</f>
+        <f t="shared" si="0"/>
         <v>22920</v>
       </c>
       <c r="G18" s="68"/>
-      <c r="H18" s="86">
+      <c r="H18" s="97">
         <v>45715</v>
       </c>
-      <c r="I18" s="85">
+      <c r="I18" s="96">
         <v>109609.41</v>
       </c>
-      <c r="J18" s="86">
+      <c r="J18" s="97">
         <v>45721</v>
       </c>
       <c r="K18" s="67">
@@ -4264,22 +4337,22 @@
         <v>82.512</v>
       </c>
       <c r="L18" s="67">
-        <f t="shared" ref="L18:L19" si="31">0.015%*F18</f>
+        <f t="shared" ref="L18:L19" si="34">0.015%*F18</f>
         <v>3.4379999999999997</v>
       </c>
       <c r="M18" s="67">
         <v>25</v>
       </c>
       <c r="N18" s="67">
-        <f t="shared" ref="N18:N19" si="32">20%*K18</f>
+        <f t="shared" ref="N18:N19" si="35">20%*K18</f>
         <v>16.502400000000002</v>
       </c>
       <c r="O18" s="67">
-        <f t="shared" ref="O18:O19" si="33">0.6%*K18</f>
+        <f t="shared" ref="O18:O19" si="36">0.6%*K18</f>
         <v>0.49507200000000001</v>
       </c>
       <c r="P18" s="67">
-        <f t="shared" ref="P18:P19" si="34">79.4%*K18</f>
+        <f t="shared" ref="P18:P19" si="37">79.4%*K18</f>
         <v>65.514527999999999</v>
       </c>
       <c r="Q18" s="67">
@@ -4287,22 +4360,22 @@
         <v>9.254250000000285</v>
       </c>
       <c r="R18" s="67">
-        <f t="shared" ref="R18:R19" si="35">F18-K18-Q18-L18</f>
+        <f t="shared" ref="R18:R19" si="38">F18-K18-Q18-L18</f>
         <v>22824.795750000001</v>
       </c>
       <c r="S18" s="67">
-        <f>R18/C18</f>
+        <f t="shared" si="2"/>
         <v>285.30994687500004</v>
       </c>
       <c r="T18" s="67">
-        <f t="shared" ref="T18:T19" si="36">R18-M18</f>
+        <f t="shared" ref="T18:T19" si="39">R18-M18</f>
         <v>22799.795750000001</v>
       </c>
-      <c r="U18" s="87">
+      <c r="U18" s="95">
         <f>SUM(T18:T20)-10</f>
         <v>109609.4136875</v>
       </c>
-      <c r="V18" s="87">
+      <c r="V18" s="95">
         <f>(I18-(U18+U19+U20))</f>
         <v>-3.6874999932479113E-3</v>
       </c>
@@ -4312,7 +4385,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
+      <c r="A19" s="96"/>
       <c r="B19" s="68" t="str">
         <f>Buy!B23</f>
         <v>CHCL</v>
@@ -4329,34 +4402,34 @@
         <v>538.14319550000005</v>
       </c>
       <c r="F19" s="68">
-        <f>C19*D19</f>
+        <f t="shared" si="0"/>
         <v>80820</v>
       </c>
       <c r="G19" s="68"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="86"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="97"/>
       <c r="K19" s="67">
         <f>IF(0.36%*F19&lt;10,10,0.33%*F19)</f>
         <v>266.70600000000002</v>
       </c>
       <c r="L19" s="67">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>12.122999999999999</v>
       </c>
       <c r="M19" s="67">
         <v>25</v>
       </c>
       <c r="N19" s="67">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>53.341200000000008</v>
       </c>
       <c r="O19" s="67">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.6002360000000002</v>
       </c>
       <c r="P19" s="67">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>211.76456400000004</v>
       </c>
       <c r="Q19" s="67">
@@ -4364,23 +4437,23 @@
         <v>0</v>
       </c>
       <c r="R19" s="67">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>80541.170999999988</v>
       </c>
       <c r="S19" s="67">
-        <f>R19/C19</f>
+        <f t="shared" si="2"/>
         <v>536.9411399999999</v>
       </c>
       <c r="T19" s="67">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>80516.170999999988</v>
       </c>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
       <c r="W19" s="92"/>
     </row>
     <row r="20" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="85"/>
+      <c r="A20" s="96"/>
       <c r="B20" s="68" t="s">
         <v>16</v>
       </c>
@@ -4395,13 +4468,13 @@
         <v>299.36374999999992</v>
       </c>
       <c r="F20" s="68">
-        <f>C20*D20</f>
+        <f t="shared" si="0"/>
         <v>6378</v>
       </c>
       <c r="G20" s="68"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="86"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="97"/>
       <c r="K20" s="67">
         <f>IF(0.36%*F20&lt;10,10,0.36%*F20)</f>
         <v>22.960799999999999</v>
@@ -4430,19 +4503,19 @@
         <v>25.635562500000095</v>
       </c>
       <c r="R20" s="67">
-        <f t="shared" ref="R20" si="37">F20-K20-Q20-L20</f>
+        <f t="shared" ref="R20" si="40">F20-K20-Q20-L20</f>
         <v>6328.4469375000008</v>
       </c>
       <c r="S20" s="67">
-        <f>R20/C20</f>
+        <f t="shared" si="2"/>
         <v>316.42234687500002</v>
       </c>
       <c r="T20" s="67">
-        <f t="shared" ref="T20" si="38">R20-M20</f>
+        <f t="shared" ref="T20" si="41">R20-M20</f>
         <v>6303.4469375000008</v>
       </c>
-      <c r="U20" s="87"/>
-      <c r="V20" s="87"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
       <c r="W20" s="92"/>
     </row>
     <row r="21" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -4463,7 +4536,7 @@
         <v>523.68670833333329</v>
       </c>
       <c r="F21" s="68">
-        <f>C21*D21</f>
+        <f t="shared" si="0"/>
         <v>15810</v>
       </c>
       <c r="G21" s="68"/>
@@ -4509,7 +4582,7 @@
         <v>15749.579156250002</v>
       </c>
       <c r="S21" s="67">
-        <f>R21/C21</f>
+        <f t="shared" si="2"/>
         <v>524.98597187500002</v>
       </c>
       <c r="T21" s="67">
@@ -4524,7 +4597,7 @@
         <f>I21-U21</f>
         <v>9.3397499967977637E-3</v>
       </c>
-      <c r="W21" s="91">
+      <c r="W21" s="74">
         <f>U21-Buy!H17</f>
         <v>3.9694102500034205</v>
       </c>
@@ -4547,36 +4620,36 @@
         <v>226.65812499999993</v>
       </c>
       <c r="F22" s="10">
-        <f>C22*D22</f>
+        <f t="shared" si="0"/>
         <v>18800</v>
       </c>
       <c r="G22" s="10"/>
-      <c r="H22" s="94">
+      <c r="H22" s="76">
         <v>45719</v>
       </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="29">
-        <f t="shared" ref="K22" si="39">IF(0.36%*F22&lt;10,10,0.36%*F22)</f>
+        <f t="shared" ref="K22" si="42">IF(0.36%*F22&lt;10,10,0.36%*F22)</f>
         <v>67.679999999999993</v>
       </c>
       <c r="L22" s="29">
-        <f t="shared" ref="L22" si="40">0.015%*F22</f>
+        <f t="shared" ref="L22" si="43">0.015%*F22</f>
         <v>2.82</v>
       </c>
       <c r="M22" s="29">
         <v>25</v>
       </c>
       <c r="N22" s="29">
-        <f t="shared" ref="N22" si="41">20%*K22</f>
+        <f t="shared" ref="N22" si="44">20%*K22</f>
         <v>13.536</v>
       </c>
       <c r="O22" s="29">
-        <f t="shared" ref="O22" si="42">0.6%*K22</f>
+        <f t="shared" ref="O22" si="45">0.6%*K22</f>
         <v>0.40607999999999994</v>
       </c>
       <c r="P22" s="29">
-        <f t="shared" ref="P22" si="43">79.4%*K22</f>
+        <f t="shared" ref="P22" si="46">79.4%*K22</f>
         <v>53.737919999999995</v>
       </c>
       <c r="Q22" s="29">
@@ -4584,15 +4657,15 @@
         <v>42.888750000000435</v>
       </c>
       <c r="R22" s="29">
-        <f t="shared" ref="R22" si="44">F22-K22-Q22-L22</f>
+        <f t="shared" ref="R22" si="47">F22-K22-Q22-L22</f>
         <v>18686.611249999998</v>
       </c>
       <c r="S22" s="29">
-        <f>R22/C22</f>
+        <f t="shared" si="2"/>
         <v>233.58264062499998</v>
       </c>
       <c r="T22" s="29">
-        <f t="shared" ref="T22" si="45">R22-M22</f>
+        <f t="shared" ref="T22" si="48">R22-M22</f>
         <v>18661.611249999998</v>
       </c>
       <c r="U22" s="29">
@@ -4622,7 +4695,7 @@
         <v>631.0879583333334</v>
       </c>
       <c r="F23" s="10">
-        <f>C23*D23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" s="10"/>
@@ -4661,7 +4734,7 @@
         <v>-10</v>
       </c>
       <c r="S23" s="67">
-        <f>R23/C23</f>
+        <f t="shared" si="2"/>
         <v>-0.33333333333333331</v>
       </c>
       <c r="T23" s="67">
@@ -4677,19 +4750,83 @@
         <v>44.727000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
+    <row r="24" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="str">
+        <f>Buy!B26</f>
+        <v>RFPL</v>
+      </c>
+      <c r="C24" s="10">
+        <v>30</v>
+      </c>
+      <c r="D24" s="10">
+        <v>840</v>
+      </c>
+      <c r="E24" s="29">
+        <f>Buy!D27</f>
+        <v>831.79307692307702</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" ref="F24" si="49">C24*D24</f>
+        <v>25200</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="76">
+        <v>45719</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="29">
+        <f t="shared" ref="K24" si="50">IF(0.36%*F24&lt;10,10,0.36%*F24)</f>
+        <v>90.72</v>
+      </c>
+      <c r="L24" s="29">
+        <f t="shared" ref="L24" si="51">0.015%*F24</f>
+        <v>3.78</v>
+      </c>
+      <c r="M24" s="29">
+        <v>25</v>
+      </c>
+      <c r="N24" s="29">
+        <f t="shared" ref="N24" si="52">20%*K24</f>
+        <v>18.144000000000002</v>
+      </c>
+      <c r="O24" s="29">
+        <f t="shared" ref="O24" si="53">0.6%*K24</f>
+        <v>0.54432000000000003</v>
+      </c>
+      <c r="P24" s="29">
+        <f t="shared" ref="P24" si="54">79.4%*K24</f>
+        <v>72.031680000000009</v>
+      </c>
+      <c r="Q24" s="29">
+        <f>IF(E24&gt;D24,0,(((D24*C24-E24*C24)-L24-M24-O24-N24-P24)*7.5%))</f>
+        <v>9.5030769230766943</v>
+      </c>
+      <c r="R24" s="29">
+        <f t="shared" ref="R24" si="55">F24-K24-Q24-L24</f>
+        <v>25095.996923076924</v>
+      </c>
+      <c r="S24" s="29">
+        <f t="shared" ref="S24" si="56">R24/C24</f>
+        <v>836.53323076923084</v>
+      </c>
+      <c r="T24" s="29">
+        <f t="shared" ref="T24" si="57">R24-M24</f>
+        <v>25070.996923076924</v>
+      </c>
+      <c r="U24" s="29">
+        <f>T24-9.667-O24</f>
+        <v>25060.785603076922</v>
+      </c>
+      <c r="V24" s="29">
+        <f>I24-U24</f>
+        <v>-25060.785603076922</v>
+      </c>
+      <c r="W24" s="60">
+        <f>U24-Buy!H18</f>
+        <v>15595.516853076922</v>
+      </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="K25" s="54"/>
@@ -4728,11 +4865,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="U7:U9"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="U15:U16"/>
     <mergeCell ref="V18:V20"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="J18:J20"/>
@@ -4740,28 +4892,13 @@
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="U18:U20"/>
-    <mergeCell ref="W18:W20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="U7:U9"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="U11:U12"/>
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="V7:V9"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4825,17 +4962,17 @@
       <c r="G1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="72"/>
+      <c r="I1" s="88"/>
       <c r="J1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="73"/>
+      <c r="L1" s="89"/>
       <c r="M1" s="22" t="s">
         <v>2</v>
       </c>
@@ -5232,7 +5369,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="74">
+      <c r="A8" s="82">
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -5258,7 +5395,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="75">
+      <c r="M8" s="81">
         <v>45649</v>
       </c>
       <c r="N8" s="27"/>
@@ -5292,7 +5429,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
@@ -5316,7 +5453,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="75"/>
+      <c r="M9" s="81"/>
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
       <c r="P9" s="19">
@@ -5348,7 +5485,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="14" t="s">
         <v>7</v>
       </c>
@@ -5372,7 +5509,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="75"/>
+      <c r="M10" s="81"/>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
       <c r="P10" s="19">
@@ -5404,7 +5541,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="14" t="s">
         <v>12</v>
       </c>
@@ -5428,7 +5565,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="75"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
       <c r="P11" s="19">
@@ -5460,7 +5597,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="14" t="s">
         <v>13</v>
       </c>
@@ -5484,7 +5621,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="75"/>
+      <c r="M12" s="81"/>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
       <c r="P12" s="19">
@@ -5516,7 +5653,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="14" t="s">
         <v>14</v>
       </c>
@@ -5540,7 +5677,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="75"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="27"/>
       <c r="O13" s="27"/>
       <c r="P13" s="19">
@@ -5572,7 +5709,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="74">
+      <c r="A14" s="82">
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -5594,14 +5731,14 @@
         <f>C14*E14</f>
         <v>34200</v>
       </c>
-      <c r="I14" s="83">
+      <c r="I14" s="84">
         <f>SUM(H14:H15)</f>
         <v>40140</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="75">
+      <c r="M14" s="81">
         <v>45657</v>
       </c>
       <c r="N14" s="27"/>
@@ -5635,7 +5772,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="74"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="14" t="s">
         <v>16</v>
       </c>
@@ -5655,11 +5792,11 @@
         <f>C15*E15</f>
         <v>5940</v>
       </c>
-      <c r="I15" s="83"/>
+      <c r="I15" s="84"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="75"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
       <c r="P15" s="19">
@@ -5691,7 +5828,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="80">
+      <c r="A16" s="79">
         <v>8</v>
       </c>
       <c r="B16" s="24" t="s">
@@ -5717,7 +5854,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="75">
+      <c r="M16" s="81">
         <v>45664</v>
       </c>
       <c r="N16" s="28"/>
@@ -5751,7 +5888,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="24" t="s">
         <v>32</v>
       </c>
@@ -5775,7 +5912,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="75"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="19">
@@ -5807,7 +5944,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="24" t="s">
         <v>13</v>
       </c>
@@ -5831,7 +5968,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="75"/>
+      <c r="M18" s="81"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="19">
@@ -5863,7 +6000,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="24" t="s">
         <v>33</v>
       </c>
@@ -5887,7 +6024,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="75"/>
+      <c r="M19" s="81"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="19">
@@ -6221,10 +6358,10 @@
       <c r="C1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="77"/>
+      <c r="E1" s="91"/>
       <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
@@ -6234,17 +6371,17 @@
       <c r="H1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="72"/>
+      <c r="J1" s="88"/>
       <c r="K1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="73"/>
+      <c r="M1" s="89"/>
       <c r="N1" s="50" t="s">
         <v>2</v>
       </c>
@@ -6420,7 +6557,7 @@
         <f>H4/C4</f>
         <v>738.38125000000014</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="85">
         <f>AVERAGE(D4:D5)</f>
         <v>739.28462500000012</v>
       </c>
@@ -6487,7 +6624,7 @@
         <f>H5/C5</f>
         <v>740.1880000000001</v>
       </c>
-      <c r="E5" s="71"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="20">
         <v>736.8</v>
       </c>
@@ -6602,7 +6739,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="74">
+      <c r="A7" s="82">
         <v>6</v>
       </c>
       <c r="B7" s="53" t="s">
@@ -6632,7 +6769,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="75">
+      <c r="N7" s="81">
         <v>45649</v>
       </c>
       <c r="O7" s="27"/>
@@ -6666,7 +6803,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="53" t="s">
         <v>11</v>
       </c>
@@ -6694,7 +6831,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="75"/>
+      <c r="N8" s="81"/>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="19">
@@ -6726,7 +6863,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="53" t="s">
         <v>7</v>
       </c>
@@ -6757,7 +6894,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="75"/>
+      <c r="N9" s="81"/>
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="19">
@@ -6789,7 +6926,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="53" t="s">
         <v>12</v>
       </c>
@@ -6817,7 +6954,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="75"/>
+      <c r="N10" s="81"/>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="19">
@@ -6849,7 +6986,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="53" t="s">
         <v>13</v>
       </c>
@@ -6877,7 +7014,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="75"/>
+      <c r="N11" s="81"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="19">
@@ -6909,7 +7046,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="53" t="s">
         <v>14</v>
       </c>
@@ -6936,7 +7073,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="75"/>
+      <c r="N12" s="81"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
       <c r="Q12" s="19">
@@ -6968,7 +7105,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="74">
+      <c r="A13" s="82">
         <v>7</v>
       </c>
       <c r="B13" s="53" t="s">
@@ -6991,14 +7128,14 @@
         <f>C13*F13</f>
         <v>34200</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="84">
         <f>SUM(I13:I14)</f>
         <v>40140</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="75">
+      <c r="N13" s="81">
         <v>45657</v>
       </c>
       <c r="O13" s="27"/>
@@ -7032,7 +7169,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="53" t="s">
         <v>16</v>
       </c>
@@ -7053,11 +7190,11 @@
         <f>C14*F14</f>
         <v>5940</v>
       </c>
-      <c r="J14" s="83"/>
+      <c r="J14" s="84"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="75"/>
+      <c r="N14" s="81"/>
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="19">
@@ -7089,7 +7226,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="80">
+      <c r="A15" s="79">
         <v>8</v>
       </c>
       <c r="B15" s="49" t="s">
@@ -7116,7 +7253,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="75">
+      <c r="N15" s="81">
         <v>45664</v>
       </c>
       <c r="O15" s="28"/>
@@ -7150,7 +7287,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="49" t="s">
         <v>32</v>
       </c>
@@ -7175,7 +7312,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="75"/>
+      <c r="N16" s="81"/>
       <c r="O16" s="49"/>
       <c r="P16" s="49"/>
       <c r="Q16" s="19">
@@ -7207,7 +7344,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="49" t="s">
         <v>13</v>
       </c>
@@ -7232,7 +7369,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="75"/>
+      <c r="N17" s="81"/>
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
       <c r="Q17" s="19">
@@ -7264,7 +7401,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="49" t="s">
         <v>33</v>
       </c>
@@ -7289,7 +7426,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="75"/>
+      <c r="N18" s="81"/>
       <c r="O18" s="49"/>
       <c r="P18" s="49"/>
       <c r="Q18" s="19">
@@ -7443,7 +7580,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="80">
+      <c r="A21" s="79">
         <v>11</v>
       </c>
       <c r="B21" s="53" t="s">
@@ -7470,7 +7607,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="78">
+      <c r="N21" s="77">
         <v>45676</v>
       </c>
       <c r="O21" s="49"/>
@@ -7504,7 +7641,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="49" t="s">
         <v>45</v>
       </c>
@@ -7529,7 +7666,7 @@
       <c r="K22" s="29"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="79"/>
+      <c r="N22" s="78"/>
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="19">

--- a/ofc/sh.xlsx
+++ b/ofc/sh.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Buy" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -715,34 +715,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -754,12 +733,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,15 +782,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -1102,10 +1108,10 @@
       <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="91"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
@@ -1115,17 +1121,17 @@
       <c r="H1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="I1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="88"/>
+      <c r="J1" s="81"/>
       <c r="K1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="L1" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="89"/>
+      <c r="M1" s="82"/>
       <c r="N1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1301,7 +1307,7 @@
         <f>H4/C4</f>
         <v>738.38125000000014</v>
       </c>
-      <c r="E4" s="85">
+      <c r="E4" s="79">
         <f>AVERAGE(D4:D5)</f>
         <v>739.28462500000012</v>
       </c>
@@ -1368,7 +1374,7 @@
         <f>H5/C5</f>
         <v>740.1880000000001</v>
       </c>
-      <c r="E5" s="87"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="20">
         <v>736.8</v>
       </c>
@@ -1483,7 +1489,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="82">
+      <c r="A7" s="83">
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -1513,7 +1519,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="81">
+      <c r="N7" s="84">
         <v>45649</v>
       </c>
       <c r="O7" s="12"/>
@@ -1547,7 +1553,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
@@ -1575,7 +1581,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="81"/>
+      <c r="N8" s="84"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="19">
@@ -1607,7 +1613,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
@@ -1638,7 +1644,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="81"/>
+      <c r="N9" s="84"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="19">
@@ -1670,7 +1676,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
@@ -1698,7 +1704,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="81"/>
+      <c r="N10" s="84"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="19">
@@ -1730,7 +1736,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
@@ -1758,7 +1764,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="81"/>
+      <c r="N11" s="84"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="19">
@@ -1790,7 +1796,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
@@ -1817,7 +1823,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="81"/>
+      <c r="N12" s="84"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="19">
@@ -1849,7 +1855,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="82">
+      <c r="A13" s="83">
         <v>7</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -1875,14 +1881,14 @@
         <f>C13*F13</f>
         <v>34200</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="92">
         <f>SUM(I13:I14)</f>
         <v>40140</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="81">
+      <c r="N13" s="84">
         <v>45657</v>
       </c>
       <c r="O13" s="17"/>
@@ -1916,7 +1922,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
@@ -1940,11 +1946,11 @@
         <f>C14*F14</f>
         <v>5940</v>
       </c>
-      <c r="J14" s="84"/>
+      <c r="J14" s="92"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="81"/>
+      <c r="N14" s="84"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="19">
@@ -1976,7 +1982,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="79">
+      <c r="A15" s="89">
         <v>8</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -2006,7 +2012,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="81">
+      <c r="N15" s="84">
         <v>45664</v>
       </c>
       <c r="O15" s="28"/>
@@ -2040,7 +2046,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="13" t="s">
         <v>32</v>
       </c>
@@ -2068,7 +2074,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="81"/>
+      <c r="N16" s="84"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
       <c r="Q16" s="19">
@@ -2100,7 +2106,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="13" t="s">
         <v>13</v>
       </c>
@@ -2128,7 +2134,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="81"/>
+      <c r="N17" s="84"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="19">
@@ -2160,7 +2166,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="80"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="13" t="s">
         <v>33</v>
       </c>
@@ -2188,7 +2194,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="81"/>
+      <c r="N18" s="84"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="19">
@@ -2233,7 +2239,7 @@
         <f t="shared" ref="D19" si="26">H19/C19</f>
         <v>853.4527272727272</v>
       </c>
-      <c r="E19" s="85">
+      <c r="E19" s="79">
         <f>(C19*D19+C20*D20+C21*D21)/(C19+C20+C21)</f>
         <v>828.32327083333325</v>
       </c>
@@ -2300,7 +2306,7 @@
         <f t="shared" ref="D20:D26" si="33">H20/C20</f>
         <v>833.42453947368415</v>
       </c>
-      <c r="E20" s="86"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="20">
         <v>829</v>
       </c>
@@ -2351,7 +2357,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="79">
+      <c r="A21" s="89">
         <v>11</v>
       </c>
       <c r="B21" s="47" t="s">
@@ -2364,7 +2370,7 @@
         <f t="shared" si="33"/>
         <v>815.87833333333333</v>
       </c>
-      <c r="E21" s="87"/>
+      <c r="E21" s="80"/>
       <c r="F21" s="15">
         <v>812</v>
       </c>
@@ -2381,7 +2387,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="77">
+      <c r="N21" s="87">
         <v>45676</v>
       </c>
       <c r="O21" s="13"/>
@@ -2415,7 +2421,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="80"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="13" t="s">
         <v>45</v>
       </c>
@@ -2443,7 +2449,7 @@
       <c r="K22" s="29"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="78"/>
+      <c r="N22" s="88"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="19">
@@ -2568,7 +2574,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="77">
+      <c r="N24" s="87">
         <v>45697</v>
       </c>
       <c r="O24" s="13"/>
@@ -2630,7 +2636,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="78"/>
+      <c r="N25" s="88"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="19">
@@ -2929,12 +2935,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="N7:N12"/>
-    <mergeCell ref="D1:E1"/>
     <mergeCell ref="N24:N25"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="N21:N22"/>
@@ -2944,6 +2944,12 @@
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="E19:E21"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="N7:N12"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2955,9 +2961,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V24" sqref="V24"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3004,10 +3010,10 @@
       <c r="E1" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="89"/>
+      <c r="G1" s="82"/>
       <c r="H1" s="42" t="s">
         <v>3</v>
       </c>
@@ -3135,7 +3141,7 @@
         <f>I2-U2</f>
         <v>4.6118825000048673</v>
       </c>
-      <c r="W2" s="92">
+      <c r="W2" s="97">
         <f>SUM(I2:I3)-Buy!H2</f>
         <v>1312.0737500000032</v>
       </c>
@@ -3218,7 +3224,7 @@
         <f>I3-U3</f>
         <v>4.3261512499993842</v>
       </c>
-      <c r="W3" s="92"/>
+      <c r="W3" s="97"/>
     </row>
     <row r="4" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43">
@@ -3304,7 +3310,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="96">
+      <c r="A5" s="94">
         <v>4</v>
       </c>
       <c r="B5" s="43" t="s">
@@ -3324,17 +3330,17 @@
         <f t="shared" si="0"/>
         <v>8700</v>
       </c>
-      <c r="G5" s="96">
+      <c r="G5" s="94">
         <f>SUM(F5:F6)</f>
         <v>17150</v>
       </c>
-      <c r="H5" s="97">
+      <c r="H5" s="95">
         <v>45655</v>
       </c>
-      <c r="I5" s="95">
+      <c r="I5" s="96">
         <v>16695.41</v>
       </c>
-      <c r="J5" s="97">
+      <c r="J5" s="95">
         <v>45659</v>
       </c>
       <c r="K5" s="32">
@@ -3376,11 +3382,11 @@
         <f>R5-M5</f>
         <v>8607.0545000000002</v>
       </c>
-      <c r="U5" s="95">
+      <c r="U5" s="96">
         <f>SUM(T5:T6)-9.667-O5-O6</f>
         <v>16691.0186225</v>
       </c>
-      <c r="V5" s="93">
+      <c r="V5" s="98">
         <f>I5-U5</f>
         <v>4.3913775000000896</v>
       </c>
@@ -3390,7 +3396,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
@@ -3408,10 +3414,10 @@
         <f t="shared" si="0"/>
         <v>8450</v>
       </c>
-      <c r="G6" s="96"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="97"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="95"/>
       <c r="K6" s="29">
         <f t="shared" si="4"/>
         <v>30.419999999999998</v>
@@ -3451,11 +3457,11 @@
         <f>R6-M6</f>
         <v>8094.0015624999996</v>
       </c>
-      <c r="U6" s="95"/>
-      <c r="V6" s="94"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="99"/>
     </row>
     <row r="7" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96">
+      <c r="A7" s="94">
         <v>5</v>
       </c>
       <c r="B7" s="43" t="s">
@@ -3475,17 +3481,17 @@
         <f t="shared" si="0"/>
         <v>2551</v>
       </c>
-      <c r="G7" s="96">
+      <c r="G7" s="94">
         <f>SUM(F7:F9)</f>
         <v>17752</v>
       </c>
-      <c r="H7" s="97">
+      <c r="H7" s="95">
         <v>45663</v>
       </c>
-      <c r="I7" s="95">
+      <c r="I7" s="96">
         <v>17564.150000000001</v>
       </c>
-      <c r="J7" s="97">
+      <c r="J7" s="95">
         <v>45676</v>
       </c>
       <c r="K7" s="59">
@@ -3527,11 +3533,11 @@
         <f t="shared" ref="T7:T9" si="10">R7-M7</f>
         <v>2512.5825799999998</v>
       </c>
-      <c r="U7" s="95">
+      <c r="U7" s="96">
         <f>SUM(T7:T9)-9.667-O7-O8-O9</f>
         <v>17559.651332149995</v>
       </c>
-      <c r="V7" s="95">
+      <c r="V7" s="96">
         <f>(I7-(U7+U8+U9))</f>
         <v>4.4986678500063135</v>
       </c>
@@ -3541,7 +3547,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="96"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="43" t="s">
         <v>11</v>
       </c>
@@ -3559,10 +3565,10 @@
         <f t="shared" si="0"/>
         <v>5330</v>
       </c>
-      <c r="G8" s="96"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="97"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="95"/>
       <c r="K8" s="59">
         <f t="shared" si="4"/>
         <v>19.187999999999999</v>
@@ -3602,15 +3608,15 @@
         <f t="shared" si="10"/>
         <v>5271.2841250000001</v>
       </c>
-      <c r="U8" s="95"/>
-      <c r="V8" s="95"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="96"/>
       <c r="W8" s="74">
         <f>T8-9.67-O8-Buy!H8</f>
         <v>159.53149699999904</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="96"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="43" t="s">
         <v>13</v>
       </c>
@@ -3628,10 +3634,10 @@
         <f t="shared" si="0"/>
         <v>9871</v>
       </c>
-      <c r="G9" s="96"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="97"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="95"/>
       <c r="K9" s="59">
         <f t="shared" si="4"/>
         <v>35.535600000000002</v>
@@ -3671,8 +3677,8 @@
         <f t="shared" si="10"/>
         <v>9785.8399687500005</v>
       </c>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="96"/>
       <c r="W9" s="74">
         <f>T9-9.67-O9-Buy!H11</f>
         <v>275.55675515000075</v>
@@ -3758,7 +3764,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="96">
+      <c r="A11" s="94">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -3778,17 +3784,17 @@
         <f t="shared" si="0"/>
         <v>16269</v>
       </c>
-      <c r="G11" s="96">
+      <c r="G11" s="94">
         <f>SUM(F11:F12)</f>
         <v>27269</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="95">
         <v>45670</v>
       </c>
-      <c r="I11" s="95">
+      <c r="I11" s="96">
         <v>27082.45</v>
       </c>
-      <c r="J11" s="97">
+      <c r="J11" s="95">
         <v>45674</v>
       </c>
       <c r="K11" s="29">
@@ -3830,17 +3836,17 @@
         <f t="shared" ref="T11:T12" si="24">R11-M11</f>
         <v>16182.991249999999</v>
       </c>
-      <c r="U11" s="95">
+      <c r="U11" s="96">
         <f>SUM(T11:T12)-9.667-O11-O12</f>
         <v>27077.844614599999</v>
       </c>
-      <c r="V11" s="93">
+      <c r="V11" s="98">
         <f>I11-U11</f>
         <v>4.6053854000019783</v>
       </c>
     </row>
     <row r="12" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="96"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="43" t="s">
         <v>9</v>
       </c>
@@ -3858,10 +3864,10 @@
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="97"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="95"/>
       <c r="K12" s="59">
         <f t="shared" si="18"/>
         <v>39.6</v>
@@ -3901,8 +3907,8 @@
         <f t="shared" si="24"/>
         <v>10905.109375</v>
       </c>
-      <c r="U12" s="95"/>
-      <c r="V12" s="94"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="99"/>
     </row>
     <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -4089,10 +4095,10 @@
       <c r="H15" s="76">
         <v>45685</v>
       </c>
-      <c r="I15" s="96">
+      <c r="I15" s="94">
         <v>65490.16</v>
       </c>
-      <c r="J15" s="97">
+      <c r="J15" s="95">
         <v>45697</v>
       </c>
       <c r="K15" s="29">
@@ -4134,11 +4140,11 @@
         <f t="shared" si="28"/>
         <v>29957.265781250004</v>
       </c>
-      <c r="U15" s="95">
+      <c r="U15" s="96">
         <f>SUM(T15:T16)-9.667-O15-O16</f>
         <v>65490.357549250002</v>
       </c>
-      <c r="V15" s="93">
+      <c r="V15" s="98">
         <f>I15-U15</f>
         <v>-0.19754924999870127</v>
       </c>
@@ -4168,8 +4174,8 @@
       <c r="H16" s="31">
         <v>45691</v>
       </c>
-      <c r="I16" s="96"/>
-      <c r="J16" s="97"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="95"/>
       <c r="K16" s="67">
         <f t="shared" si="18"/>
         <v>128.88</v>
@@ -4209,8 +4215,8 @@
         <f t="shared" si="28"/>
         <v>35544.1875</v>
       </c>
-      <c r="U16" s="95"/>
-      <c r="V16" s="94"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="74">
         <f>T16-9.67-O16-Buy!H13</f>
         <v>1180.4942200000005</v>
@@ -4300,7 +4306,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="96">
+      <c r="A18" s="94">
         <v>13</v>
       </c>
       <c r="B18" s="68" t="str">
@@ -4323,13 +4329,13 @@
         <v>22920</v>
       </c>
       <c r="G18" s="68"/>
-      <c r="H18" s="97">
+      <c r="H18" s="95">
         <v>45715</v>
       </c>
-      <c r="I18" s="96">
+      <c r="I18" s="94">
         <v>109609.41</v>
       </c>
-      <c r="J18" s="97">
+      <c r="J18" s="95">
         <v>45721</v>
       </c>
       <c r="K18" s="67">
@@ -4371,21 +4377,21 @@
         <f t="shared" ref="T18:T19" si="39">R18-M18</f>
         <v>22799.795750000001</v>
       </c>
-      <c r="U18" s="95">
+      <c r="U18" s="96">
         <f>SUM(T18:T20)-10</f>
         <v>109609.4136875</v>
       </c>
-      <c r="V18" s="95">
+      <c r="V18" s="96">
         <f>(I18-(U18+U19+U20))</f>
         <v>-3.6874999932479113E-3</v>
       </c>
-      <c r="W18" s="92">
+      <c r="W18" s="97">
         <f>U18-Buy!H24-Buy!H14-Buy!H23</f>
         <v>214.99936249999155</v>
       </c>
     </row>
     <row r="19" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="96"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="68" t="str">
         <f>Buy!B23</f>
         <v>CHCL</v>
@@ -4406,9 +4412,9 @@
         <v>80820</v>
       </c>
       <c r="G19" s="68"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="97"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="95"/>
       <c r="K19" s="67">
         <f>IF(0.36%*F19&lt;10,10,0.33%*F19)</f>
         <v>266.70600000000002</v>
@@ -4448,12 +4454,12 @@
         <f t="shared" si="39"/>
         <v>80516.170999999988</v>
       </c>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="92"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="97"/>
     </row>
     <row r="20" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="96"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="68" t="s">
         <v>16</v>
       </c>
@@ -4472,9 +4478,9 @@
         <v>6378</v>
       </c>
       <c r="G20" s="68"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="97"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="95"/>
       <c r="K20" s="67">
         <f>IF(0.36%*F20&lt;10,10,0.36%*F20)</f>
         <v>22.960799999999999</v>
@@ -4514,9 +4520,9 @@
         <f t="shared" ref="T20" si="41">R20-M20</f>
         <v>6303.4469375000008</v>
       </c>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="92"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="97"/>
     </row>
     <row r="21" spans="1:23" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="68"/>
@@ -4627,8 +4633,12 @@
       <c r="H22" s="76">
         <v>45719</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="I22" s="77">
+        <v>18656.099999999999</v>
+      </c>
+      <c r="J22" s="78">
+        <v>45728</v>
+      </c>
       <c r="K22" s="29">
         <f t="shared" ref="K22" si="42">IF(0.36%*F22&lt;10,10,0.36%*F22)</f>
         <v>67.679999999999993</v>
@@ -4674,7 +4684,7 @@
       </c>
       <c r="V22" s="29">
         <f>I22-U22</f>
-        <v>-18651.538169999996</v>
+        <v>4.5618300000023737</v>
       </c>
       <c r="W22" s="60">
         <f>U22-Buy!H16</f>
@@ -4865,19 +4875,13 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="U7:U9"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="V7:V9"/>
     <mergeCell ref="W18:W20"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="I11:I12"/>
@@ -4892,13 +4896,19 @@
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="U18:U20"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="V15:V16"/>
-    <mergeCell ref="U7:U9"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="V7:V9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I5:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4962,17 +4972,17 @@
       <c r="G1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="88"/>
+      <c r="I1" s="81"/>
       <c r="J1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="K1" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="89"/>
+      <c r="L1" s="82"/>
       <c r="M1" s="22" t="s">
         <v>2</v>
       </c>
@@ -5369,7 +5379,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="82">
+      <c r="A8" s="83">
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -5395,7 +5405,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="81">
+      <c r="M8" s="84">
         <v>45649</v>
       </c>
       <c r="N8" s="27"/>
@@ -5429,7 +5439,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
@@ -5453,7 +5463,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="81"/>
+      <c r="M9" s="84"/>
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
       <c r="P9" s="19">
@@ -5485,7 +5495,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="14" t="s">
         <v>7</v>
       </c>
@@ -5509,7 +5519,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="81"/>
+      <c r="M10" s="84"/>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
       <c r="P10" s="19">
@@ -5541,7 +5551,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="14" t="s">
         <v>12</v>
       </c>
@@ -5565,7 +5575,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="81"/>
+      <c r="M11" s="84"/>
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
       <c r="P11" s="19">
@@ -5597,7 +5607,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="14" t="s">
         <v>13</v>
       </c>
@@ -5621,7 +5631,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
-      <c r="M12" s="81"/>
+      <c r="M12" s="84"/>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
       <c r="P12" s="19">
@@ -5653,7 +5663,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="14" t="s">
         <v>14</v>
       </c>
@@ -5677,7 +5687,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="81"/>
+      <c r="M13" s="84"/>
       <c r="N13" s="27"/>
       <c r="O13" s="27"/>
       <c r="P13" s="19">
@@ -5709,7 +5719,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="82">
+      <c r="A14" s="83">
         <v>7</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -5731,14 +5741,14 @@
         <f>C14*E14</f>
         <v>34200</v>
       </c>
-      <c r="I14" s="84">
+      <c r="I14" s="92">
         <f>SUM(H14:H15)</f>
         <v>40140</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="81">
+      <c r="M14" s="84">
         <v>45657</v>
       </c>
       <c r="N14" s="27"/>
@@ -5772,7 +5782,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="14" t="s">
         <v>16</v>
       </c>
@@ -5792,11 +5802,11 @@
         <f>C15*E15</f>
         <v>5940</v>
       </c>
-      <c r="I15" s="84"/>
+      <c r="I15" s="92"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
-      <c r="M15" s="81"/>
+      <c r="M15" s="84"/>
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
       <c r="P15" s="19">
@@ -5828,7 +5838,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="79">
+      <c r="A16" s="89">
         <v>8</v>
       </c>
       <c r="B16" s="24" t="s">
@@ -5854,7 +5864,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="81">
+      <c r="M16" s="84">
         <v>45664</v>
       </c>
       <c r="N16" s="28"/>
@@ -5888,7 +5898,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="24" t="s">
         <v>32</v>
       </c>
@@ -5912,7 +5922,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
-      <c r="M17" s="81"/>
+      <c r="M17" s="84"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="19">
@@ -5944,7 +5954,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="24" t="s">
         <v>13</v>
       </c>
@@ -5968,7 +5978,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="81"/>
+      <c r="M18" s="84"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="19">
@@ -6000,7 +6010,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="80"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="24" t="s">
         <v>33</v>
       </c>
@@ -6024,7 +6034,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="81"/>
+      <c r="M19" s="84"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="19">
@@ -6358,10 +6368,10 @@
       <c r="C1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="91"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
@@ -6371,17 +6381,17 @@
       <c r="H1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="I1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="88"/>
+      <c r="J1" s="81"/>
       <c r="K1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="L1" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="89"/>
+      <c r="M1" s="82"/>
       <c r="N1" s="50" t="s">
         <v>2</v>
       </c>
@@ -6557,7 +6567,7 @@
         <f>H4/C4</f>
         <v>738.38125000000014</v>
       </c>
-      <c r="E4" s="85">
+      <c r="E4" s="79">
         <f>AVERAGE(D4:D5)</f>
         <v>739.28462500000012</v>
       </c>
@@ -6624,7 +6634,7 @@
         <f>H5/C5</f>
         <v>740.1880000000001</v>
       </c>
-      <c r="E5" s="87"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="20">
         <v>736.8</v>
       </c>
@@ -6739,7 +6749,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="82">
+      <c r="A7" s="83">
         <v>6</v>
       </c>
       <c r="B7" s="53" t="s">
@@ -6769,7 +6779,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="81">
+      <c r="N7" s="84">
         <v>45649</v>
       </c>
       <c r="O7" s="27"/>
@@ -6803,7 +6813,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="53" t="s">
         <v>11</v>
       </c>
@@ -6831,7 +6841,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="81"/>
+      <c r="N8" s="84"/>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="19">
@@ -6863,7 +6873,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="53" t="s">
         <v>7</v>
       </c>
@@ -6894,7 +6904,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="81"/>
+      <c r="N9" s="84"/>
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="19">
@@ -6926,7 +6936,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="53" t="s">
         <v>12</v>
       </c>
@@ -6954,7 +6964,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="81"/>
+      <c r="N10" s="84"/>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="19">
@@ -6986,7 +6996,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="53" t="s">
         <v>13</v>
       </c>
@@ -7014,7 +7024,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="81"/>
+      <c r="N11" s="84"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="19">
@@ -7046,7 +7056,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="53" t="s">
         <v>14</v>
       </c>
@@ -7073,7 +7083,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="81"/>
+      <c r="N12" s="84"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
       <c r="Q12" s="19">
@@ -7105,7 +7115,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="82">
+      <c r="A13" s="83">
         <v>7</v>
       </c>
       <c r="B13" s="53" t="s">
@@ -7128,14 +7138,14 @@
         <f>C13*F13</f>
         <v>34200</v>
       </c>
-      <c r="J13" s="84">
+      <c r="J13" s="92">
         <f>SUM(I13:I14)</f>
         <v>40140</v>
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="81">
+      <c r="N13" s="84">
         <v>45657</v>
       </c>
       <c r="O13" s="27"/>
@@ -7169,7 +7179,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="53" t="s">
         <v>16</v>
       </c>
@@ -7190,11 +7200,11 @@
         <f>C14*F14</f>
         <v>5940</v>
       </c>
-      <c r="J14" s="84"/>
+      <c r="J14" s="92"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="81"/>
+      <c r="N14" s="84"/>
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
       <c r="Q14" s="19">
@@ -7226,7 +7236,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="79">
+      <c r="A15" s="89">
         <v>8</v>
       </c>
       <c r="B15" s="49" t="s">
@@ -7253,7 +7263,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="81">
+      <c r="N15" s="84">
         <v>45664</v>
       </c>
       <c r="O15" s="28"/>
@@ -7287,7 +7297,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="49" t="s">
         <v>32</v>
       </c>
@@ -7312,7 +7322,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="81"/>
+      <c r="N16" s="84"/>
       <c r="O16" s="49"/>
       <c r="P16" s="49"/>
       <c r="Q16" s="19">
@@ -7344,7 +7354,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="49" t="s">
         <v>13</v>
       </c>
@@ -7369,7 +7379,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="81"/>
+      <c r="N17" s="84"/>
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
       <c r="Q17" s="19">
@@ -7401,7 +7411,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="80"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="49" t="s">
         <v>33</v>
       </c>
@@ -7426,7 +7436,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="81"/>
+      <c r="N18" s="84"/>
       <c r="O18" s="49"/>
       <c r="P18" s="49"/>
       <c r="Q18" s="19">
@@ -7580,7 +7590,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="79">
+      <c r="A21" s="89">
         <v>11</v>
       </c>
       <c r="B21" s="53" t="s">
@@ -7607,7 +7617,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="77">
+      <c r="N21" s="87">
         <v>45676</v>
       </c>
       <c r="O21" s="49"/>
@@ -7641,7 +7651,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="80"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="49" t="s">
         <v>45</v>
       </c>
@@ -7666,7 +7676,7 @@
       <c r="K22" s="29"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="78"/>
+      <c r="N22" s="88"/>
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
       <c r="Q22" s="19">
